--- a/Modulo 5 - Primeiras fórmulas/exercicio-proposto-formulas.xlsx
+++ b/Modulo 5 - Primeiras fórmulas/exercicio-proposto-formulas.xlsx
@@ -1,30 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nelio\Google Drive\Cursos online\Curso_Excel\05 Primeiras fórmulas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Felipe\Desktop\Curso-Excel\Modulo 5 - Primeiras fórmulas\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9101B866-4BBC-419B-9E95-A2E17CA221B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Estoque" sheetId="14" r:id="rId1"/>
     <sheet name="Estoque-Resolvido" sheetId="12" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -136,7 +131,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -598,10 +593,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -621,7 +618,10 @@
       <c r="J1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="K1" s="11"/>
+      <c r="K1" s="11">
+        <f>DATE(2019,12,2)</f>
+        <v>43801</v>
+      </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
@@ -677,11 +677,26 @@
       <c r="F3" s="14">
         <v>12</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
+      <c r="G3" s="9">
+        <f>E3+F3*30</f>
+        <v>44153</v>
+      </c>
+      <c r="H3" s="16" t="str">
+        <f>IF(G3&lt;$K$1,"Vencido","")</f>
+        <v/>
+      </c>
+      <c r="I3" s="15" t="str">
+        <f>IF(AND(H3="",G3-$K$1&lt;90),"Prioridade","")</f>
+        <v/>
+      </c>
+      <c r="J3" s="12" t="str">
+        <f>IF(C3&lt;D3,"Sim","")</f>
+        <v/>
+      </c>
+      <c r="K3" s="12" t="str">
+        <f>IF(J3="Sim",CONCATENATE("Pedido de: ",D3*2," un."),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
@@ -702,11 +717,26 @@
       <c r="F4" s="14">
         <v>12</v>
       </c>
-      <c r="G4" s="9"/>
-      <c r="H4" s="16"/>
-      <c r="I4" s="15"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
+      <c r="G4" s="9">
+        <f t="shared" ref="G4:G22" si="0">E4+F4*30</f>
+        <v>43871</v>
+      </c>
+      <c r="H4" s="16" t="str">
+        <f t="shared" ref="H4:H22" si="1">IF(G4&lt;$K$1,"Vencido","")</f>
+        <v/>
+      </c>
+      <c r="I4" s="15" t="str">
+        <f t="shared" ref="I4:I22" si="2">IF(AND(H4="",G4-$K$1&lt;90),"Prioridade","")</f>
+        <v>Prioridade</v>
+      </c>
+      <c r="J4" s="12" t="str">
+        <f t="shared" ref="J4:J22" si="3">IF(C4&lt;D4,"Sim","")</f>
+        <v/>
+      </c>
+      <c r="K4" s="12" t="str">
+        <f t="shared" ref="K4:K22" si="4">IF(J4="Sim",CONCATENATE("Pedido de: ",D4*2," un."),"")</f>
+        <v/>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
@@ -727,11 +757,26 @@
       <c r="F5" s="14">
         <v>24</v>
       </c>
-      <c r="G5" s="9"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
+      <c r="G5" s="9">
+        <f t="shared" si="0"/>
+        <v>44328</v>
+      </c>
+      <c r="H5" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I5" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J5" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Sim</v>
+      </c>
+      <c r="K5" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Pedido de: 224 un.</v>
+      </c>
       <c r="L5" s="10"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
@@ -753,11 +798,26 @@
       <c r="F6" s="14">
         <v>12</v>
       </c>
-      <c r="G6" s="9"/>
-      <c r="H6" s="16"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
+      <c r="G6" s="9">
+        <f t="shared" si="0"/>
+        <v>43682</v>
+      </c>
+      <c r="H6" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I6" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J6" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K6" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
@@ -778,11 +838,26 @@
       <c r="F7" s="14">
         <v>12</v>
       </c>
-      <c r="G7" s="9"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
+      <c r="G7" s="9">
+        <f t="shared" si="0"/>
+        <v>43910</v>
+      </c>
+      <c r="H7" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I7" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J7" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K7" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
@@ -803,11 +878,26 @@
       <c r="F8" s="14">
         <v>12</v>
       </c>
-      <c r="G8" s="9"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="12"/>
-      <c r="K8" s="12"/>
+      <c r="G8" s="9">
+        <f t="shared" si="0"/>
+        <v>43933</v>
+      </c>
+      <c r="H8" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I8" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J8" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K8" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
@@ -828,11 +918,26 @@
       <c r="F9" s="14">
         <v>12</v>
       </c>
-      <c r="G9" s="9"/>
-      <c r="H9" s="16"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
+      <c r="G9" s="9">
+        <f t="shared" si="0"/>
+        <v>43973</v>
+      </c>
+      <c r="H9" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I9" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J9" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K9" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
@@ -853,11 +958,26 @@
       <c r="F10" s="14">
         <v>6</v>
       </c>
-      <c r="G10" s="9"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
+      <c r="G10" s="9">
+        <f t="shared" si="0"/>
+        <v>43703</v>
+      </c>
+      <c r="H10" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I10" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J10" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K10" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
@@ -878,11 +998,26 @@
       <c r="F11" s="14">
         <v>12</v>
       </c>
-      <c r="G11" s="9"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="12"/>
-      <c r="K11" s="12"/>
+      <c r="G11" s="9">
+        <f t="shared" si="0"/>
+        <v>44070</v>
+      </c>
+      <c r="H11" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I11" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J11" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Sim</v>
+      </c>
+      <c r="K11" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Pedido de: 184 un.</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
@@ -903,11 +1038,26 @@
       <c r="F12" s="14">
         <v>12</v>
       </c>
-      <c r="G12" s="9"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="12"/>
-      <c r="K12" s="12"/>
+      <c r="G12" s="9">
+        <f t="shared" si="0"/>
+        <v>44136</v>
+      </c>
+      <c r="H12" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I12" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J12" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K12" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
@@ -928,11 +1078,26 @@
       <c r="F13" s="14">
         <v>12</v>
       </c>
-      <c r="G13" s="9"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="12"/>
-      <c r="K13" s="12"/>
+      <c r="G13" s="9">
+        <f t="shared" si="0"/>
+        <v>43923</v>
+      </c>
+      <c r="H13" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I13" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J13" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K13" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -953,11 +1118,26 @@
       <c r="F14" s="14">
         <v>24</v>
       </c>
-      <c r="G14" s="9"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
+      <c r="G14" s="9">
+        <f t="shared" si="0"/>
+        <v>44439</v>
+      </c>
+      <c r="H14" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I14" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J14" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v>Sim</v>
+      </c>
+      <c r="K14" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v>Pedido de: 126 un.</v>
+      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
@@ -978,11 +1158,26 @@
       <c r="F15" s="14">
         <v>24</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="12"/>
-      <c r="K15" s="12"/>
+      <c r="G15" s="9">
+        <f t="shared" si="0"/>
+        <v>44507</v>
+      </c>
+      <c r="H15" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I15" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J15" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K15" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
@@ -1003,11 +1198,26 @@
       <c r="F16" s="14">
         <v>24</v>
       </c>
-      <c r="G16" s="9"/>
-      <c r="H16" s="16"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="12"/>
-      <c r="K16" s="12"/>
+      <c r="G16" s="9">
+        <f t="shared" si="0"/>
+        <v>44392</v>
+      </c>
+      <c r="H16" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I16" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J16" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K16" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
@@ -1028,11 +1238,26 @@
       <c r="F17" s="14">
         <v>24</v>
       </c>
-      <c r="G17" s="9"/>
-      <c r="H17" s="16"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="G17" s="9">
+        <f t="shared" si="0"/>
+        <v>44436</v>
+      </c>
+      <c r="H17" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I17" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J17" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K17" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
@@ -1053,11 +1278,26 @@
       <c r="F18" s="14">
         <v>12</v>
       </c>
-      <c r="G18" s="9"/>
-      <c r="H18" s="16"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="12"/>
-      <c r="K18" s="12"/>
+      <c r="G18" s="9">
+        <f t="shared" si="0"/>
+        <v>43947</v>
+      </c>
+      <c r="H18" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I18" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J18" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K18" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
@@ -1078,11 +1318,26 @@
       <c r="F19" s="14">
         <v>12</v>
       </c>
-      <c r="G19" s="9"/>
-      <c r="H19" s="16"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="12"/>
-      <c r="K19" s="12"/>
+      <c r="G19" s="9">
+        <f t="shared" si="0"/>
+        <v>43780</v>
+      </c>
+      <c r="H19" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v>Vencido</v>
+      </c>
+      <c r="I19" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J19" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K19" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
@@ -1103,11 +1358,26 @@
       <c r="F20" s="14">
         <v>12</v>
       </c>
-      <c r="G20" s="9"/>
-      <c r="H20" s="16"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="12"/>
-      <c r="K20" s="12"/>
+      <c r="G20" s="9">
+        <f t="shared" si="0"/>
+        <v>43879</v>
+      </c>
+      <c r="H20" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I20" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Prioridade</v>
+      </c>
+      <c r="J20" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K20" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
@@ -1128,11 +1398,26 @@
       <c r="F21" s="14">
         <v>24</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="16"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="12"/>
-      <c r="K21" s="12"/>
+      <c r="G21" s="9">
+        <f t="shared" si="0"/>
+        <v>43890</v>
+      </c>
+      <c r="H21" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I21" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v>Prioridade</v>
+      </c>
+      <c r="J21" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K21" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
@@ -1153,11 +1438,26 @@
       <c r="F22" s="14">
         <v>24</v>
       </c>
-      <c r="G22" s="9"/>
-      <c r="H22" s="16"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="G22" s="9">
+        <f t="shared" si="0"/>
+        <v>44373</v>
+      </c>
+      <c r="H22" s="16" t="str">
+        <f t="shared" si="1"/>
+        <v/>
+      </c>
+      <c r="I22" s="15" t="str">
+        <f t="shared" si="2"/>
+        <v/>
+      </c>
+      <c r="J22" s="12" t="str">
+        <f t="shared" si="3"/>
+        <v/>
+      </c>
+      <c r="K22" s="12" t="str">
+        <f t="shared" si="4"/>
+        <v/>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -1165,7 +1465,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L22"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
@@ -1190,7 +1490,7 @@
       </c>
       <c r="K1" s="11">
         <f ca="1">TODAY()</f>
-        <v>43801</v>
+        <v>45201</v>
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1253,7 +1553,7 @@
       </c>
       <c r="H3" s="16" t="str">
         <f t="shared" ref="H3:H22" ca="1" si="1">IF(G3&lt;$K$1,"Vencido","")</f>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I3" s="15" t="str">
         <f ca="1">IF(AND(H3="",G3&lt;$K$1+90),"Prioridade","")</f>
@@ -1293,11 +1593,11 @@
       </c>
       <c r="H4" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I4" s="15" t="str">
         <f t="shared" ref="I4:I22" ca="1" si="2">IF(AND(H4="",G4&lt;$K$1+90),"Prioridade","")</f>
-        <v>Prioridade</v>
+        <v/>
       </c>
       <c r="J4" s="12" t="str">
         <f t="shared" ref="J4:J22" si="3">IF(C4&lt;=D4,"Sim","")</f>
@@ -1333,7 +1633,7 @@
       </c>
       <c r="H5" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I5" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1414,7 +1714,7 @@
       </c>
       <c r="H7" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I7" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1454,7 +1754,7 @@
       </c>
       <c r="H8" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I8" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1494,7 +1794,7 @@
       </c>
       <c r="H9" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I9" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1574,7 +1874,7 @@
       </c>
       <c r="H11" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I11" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1614,7 +1914,7 @@
       </c>
       <c r="H12" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I12" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1654,7 +1954,7 @@
       </c>
       <c r="H13" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I13" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1694,7 +1994,7 @@
       </c>
       <c r="H14" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I14" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1734,7 +2034,7 @@
       </c>
       <c r="H15" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I15" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1774,7 +2074,7 @@
       </c>
       <c r="H16" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I16" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1814,7 +2114,7 @@
       </c>
       <c r="H17" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I17" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1854,7 +2154,7 @@
       </c>
       <c r="H18" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I18" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -1934,11 +2234,11 @@
       </c>
       <c r="H20" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I20" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Prioridade</v>
+        <v/>
       </c>
       <c r="J20" s="12" t="str">
         <f t="shared" si="3"/>
@@ -1974,11 +2274,11 @@
       </c>
       <c r="H21" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I21" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
-        <v>Prioridade</v>
+        <v/>
       </c>
       <c r="J21" s="12" t="str">
         <f t="shared" si="3"/>
@@ -2014,7 +2314,7 @@
       </c>
       <c r="H22" s="16" t="str">
         <f t="shared" ca="1" si="1"/>
-        <v/>
+        <v>Vencido</v>
       </c>
       <c r="I22" s="15" t="str">
         <f t="shared" ca="1" si="2"/>
@@ -2030,7 +2330,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState ref="B3:B18">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B3:B18">
     <sortCondition ref="B3:B18"/>
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
